--- a/chapters/openai/openai-models.xlsx
+++ b/chapters/openai/openai-models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royfr474/github/genai/chapters/openai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABA0A0-65A3-154F-9213-11C3A1FC8803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20636BD5-59B1-954B-A08F-7E384C4BC265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="26760" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Model</t>
   </si>
@@ -135,6 +135,27 @@
   </si>
   <si>
     <t>dalle-2</t>
+  </si>
+  <si>
+    <t>gpt-5</t>
+  </si>
+  <si>
+    <t>gpt-5-mini</t>
+  </si>
+  <si>
+    <t>gpt-5-nano</t>
+  </si>
+  <si>
+    <t>30-09-2024</t>
+  </si>
+  <si>
+    <t>31-05-2024</t>
+  </si>
+  <si>
+    <t>gpt-oss-120b</t>
+  </si>
+  <si>
+    <t>gpt-oss-20b</t>
   </si>
 </sst>
 </file>
@@ -178,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +227,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -555,157 +582,145 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="11">
+        <v>400000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>400000</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="H3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11">
+        <v>400000</v>
+      </c>
+      <c r="F4" s="11">
         <v>4</v>
       </c>
-      <c r="G2" s="6">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11">
+        <v>131000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E3" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E6" s="11">
+        <v>131000</v>
+      </c>
+      <c r="F6" s="11">
         <v>4</v>
       </c>
-      <c r="G3" s="6">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="G6" s="11">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E5" s="6">
-        <v>128000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>60</v>
-      </c>
-      <c r="E6" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D7" s="6">
-        <v>0.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E7" s="6">
-        <v>1047576</v>
+        <v>200000</v>
       </c>
       <c r="F7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
@@ -713,51 +728,51 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>1.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="6">
-        <v>1047576</v>
+        <v>200000</v>
       </c>
       <c r="F8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6">
-        <v>1047576</v>
+        <v>200000</v>
       </c>
       <c r="F9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>5</v>
@@ -765,25 +780,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6">
-        <v>0.15</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10" s="6">
-        <v>0.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="6">
         <v>128000</v>
       </c>
       <c r="F10" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>8</v>
@@ -791,25 +806,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6">
-        <v>128000</v>
+        <v>200000</v>
       </c>
       <c r="F11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>8</v>
@@ -817,104 +832,235 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="6">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="6">
-        <v>128000</v>
+        <v>1047576</v>
       </c>
       <c r="F12" s="6">
         <v>2</v>
       </c>
       <c r="G12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="6">
-        <v>60</v>
+        <v>1.6</v>
       </c>
       <c r="E13" s="6">
-        <v>8192</v>
+        <v>1047576</v>
       </c>
       <c r="F13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E14" s="6">
-        <v>16385</v>
+        <v>1047576</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>128000</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>128000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6">
+        <v>128000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6">
+        <v>60</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8192</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>16385</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E20" s="6">
         <v>1024</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F20" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G20" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
